--- a/00.要件定義/機能一覧_統合版.xlsx
+++ b/00.要件定義/機能一覧_統合版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/00.要件定義/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390983F2-B373-B649-86B1-59E552C03AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D53D35D-4860-5C45-A523-B51C1D2FA6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25020" windowHeight="14880" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="460" windowWidth="25020" windowHeight="14880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本書について" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="215">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -648,23 +648,6 @@
     <t>管理画面 (PC, AWS DynamoDB, EC2)</t>
     <rPh sb="0" eb="4">
       <t>カンリガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・CloudFront経由でS3の動画を取得する
-・ストリーミング配信</t>
-    <rPh sb="11" eb="13">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハイシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2034,9 +2017,6 @@
       そのため、VuforiaのDBに登録する処理、xmlファイル、datファイル
       の作成処理は削除する。</t>
     </r>
-  </si>
-  <si>
-    <t>・動画ごとの再生回数</t>
   </si>
   <si>
     <r>
@@ -2205,6 +2185,46 @@
       <t xml:space="preserve">
 見積り依頼</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・動画ごとの再生回数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>　・最近 1週間の再生回数の合計を表示する</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・CloudFront経由でS3の動画を取得する
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>・ストリーミング配信</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample:
+select
+    album_id, content_id, sum(count)
+from
+    records
+where
+    access_date &gt; "20201012" 
+group by
+    album_id, content_id
+;</t>
   </si>
 </sst>
 </file>
@@ -3315,17 +3335,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3925,15 +3945,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>254001</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>818445</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>366889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3948,8 +3968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12763500" y="292100"/>
-          <a:ext cx="3556000" cy="1435100"/>
+          <a:off x="12446001" y="261057"/>
+          <a:ext cx="4445000" cy="1573388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4789,7 +4809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4830,17 +4850,17 @@
     </row>
     <row r="15" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4881,7 @@
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4875,7 +4895,8 @@
     <col min="5" max="8" width="3.1640625" style="19" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="20" customWidth="1"/>
     <col min="10" max="13" width="4.83203125" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="12.83203125" style="20"/>
+    <col min="14" max="14" width="50.83203125" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="12.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -4886,7 +4907,7 @@
       <c r="H1" s="36"/>
       <c r="I1" s="34"/>
       <c r="J1" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
@@ -4903,19 +4924,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>19</v>
@@ -4935,7 +4956,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -4945,7 +4966,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
@@ -4961,7 +4982,7 @@
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
@@ -4993,10 +5014,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -5028,10 +5049,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
@@ -5063,10 +5084,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
@@ -5081,10 +5102,10 @@
         <v>40</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>40</v>
@@ -5098,10 +5119,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
@@ -5133,10 +5154,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="60"/>
       <c r="F9" s="60"/>
@@ -5145,16 +5166,16 @@
         <v>24</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J9" s="61" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M9" s="61" t="s">
         <v>40</v>
@@ -5165,13 +5186,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>110</v>
-      </c>
       <c r="D10" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
@@ -5200,13 +5221,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>112</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -5235,13 +5256,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
@@ -5250,7 +5271,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="66" t="s">
         <v>40</v>
@@ -5270,13 +5291,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -5285,16 +5306,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>40</v>
@@ -5305,13 +5326,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -5340,13 +5361,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="60"/>
       <c r="F15" s="60"/>
@@ -5361,10 +5382,10 @@
         <v>40</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M15" s="61" t="s">
         <v>40</v>
@@ -5375,13 +5396,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="51" t="s">
-        <v>80</v>
-      </c>
       <c r="D16" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
@@ -5390,7 +5411,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="56" t="s">
         <v>40</v>
@@ -5410,22 +5431,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
       <c r="H17" s="69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I17" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="66" t="s">
         <v>40</v>
@@ -5445,13 +5466,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
@@ -5460,7 +5481,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="56" t="s">
         <v>40</v>
@@ -5480,13 +5501,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="64" t="s">
         <v>124</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>125</v>
       </c>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
@@ -5495,7 +5516,7 @@
         <v>24</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="66" t="s">
         <v>40</v>
@@ -5515,20 +5536,20 @@
         <v>17</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="69"/>
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
       <c r="H20" s="69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="66" t="s">
         <v>40</v>
@@ -5555,7 +5576,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -5567,13 +5588,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="75"/>
@@ -5600,13 +5621,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="E25" s="60"/>
       <c r="F25" s="60"/>
@@ -5633,13 +5654,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" s="60"/>
       <c r="F26" s="60"/>
@@ -5658,7 +5679,7 @@
         <v>40</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5673,7 +5694,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
@@ -5702,22 +5723,22 @@
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N30" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -5742,22 +5763,22 @@
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N31" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -5782,22 +5803,22 @@
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -5822,22 +5843,22 @@
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J33" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -5851,7 +5872,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>29</v>
@@ -5887,7 +5908,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="60" t="s">
         <v>29</v>
@@ -5930,22 +5951,22 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J36" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M36" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N36" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -5966,22 +5987,22 @@
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J37" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L37" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N37" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -6002,22 +6023,22 @@
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N38" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -6038,22 +6059,22 @@
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" s="34" t="s">
         <v>88</v>
-      </c>
-      <c r="J39" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" s="34" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -6064,10 +6085,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E40" s="71" t="s">
         <v>29</v>
@@ -6078,7 +6099,7 @@
       <c r="G40" s="78"/>
       <c r="H40" s="78"/>
       <c r="I40" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J40" s="77" t="s">
         <v>40</v>
@@ -6104,7 +6125,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="36" t="s">
         <v>29</v>
@@ -6139,7 +6160,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" s="36" t="s">
         <v>29</v>
@@ -6148,10 +6169,10 @@
         <v>29</v>
       </c>
       <c r="I42" s="57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J42" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K42" s="37" t="s">
         <v>40</v>
@@ -6160,7 +6181,7 @@
         <v>40</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -6174,7 +6195,7 @@
         <v>14</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="55" t="s">
         <v>29</v>
@@ -6183,7 +6204,7 @@
         <v>29</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" s="45" t="s">
         <v>40</v>
@@ -6209,7 +6230,7 @@
         <v>15</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" s="60" t="s">
         <v>29</v>
@@ -6223,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K44" s="61" t="s">
         <v>40</v>
@@ -6232,7 +6253,7 @@
         <v>40</v>
       </c>
       <c r="M44" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -6243,7 +6264,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>18</v>
@@ -6278,10 +6299,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>24</v>
@@ -6290,10 +6311,10 @@
         <v>24</v>
       </c>
       <c r="I46" s="82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J46" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K46" s="37" t="s">
         <v>40</v>
@@ -6302,10 +6323,10 @@
         <v>40</v>
       </c>
       <c r="M46" s="50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A47" s="36">
         <v>18</v>
       </c>
@@ -6313,10 +6334,10 @@
         <v>8</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E47" s="36" t="s">
         <v>24</v>
@@ -6324,11 +6345,11 @@
       <c r="F47" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="34" t="s">
-        <v>20</v>
+      <c r="I47" s="82" t="s">
+        <v>210</v>
       </c>
       <c r="J47" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K47" s="72" t="s">
         <v>40</v>
@@ -6337,7 +6358,10 @@
         <v>40</v>
       </c>
       <c r="M47" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -6351,7 +6375,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E48" s="36" t="s">
         <v>24</v>
@@ -6360,10 +6384,10 @@
         <v>24</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J48" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K48" s="37" t="s">
         <v>40</v>
@@ -6372,8 +6396,9 @@
         <v>40</v>
       </c>
       <c r="M48" s="50" t="s">
-        <v>195</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N48" s="24"/>
     </row>
     <row r="49" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="36">
@@ -6386,7 +6411,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E49" s="60" t="s">
         <v>29</v>
@@ -6397,10 +6422,10 @@
       <c r="G49" s="79"/>
       <c r="H49" s="79"/>
       <c r="I49" s="83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J49" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K49" s="61" t="s">
         <v>40</v>
@@ -6409,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="M49" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -6417,13 +6442,13 @@
         <v>21</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="51" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="53" t="s">
         <v>23</v>
@@ -6434,7 +6459,7 @@
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J50" s="45" t="s">
         <v>40</v>
@@ -6454,13 +6479,13 @@
         <v>22</v>
       </c>
       <c r="B51" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="51" t="s">
-        <v>82</v>
-      </c>
       <c r="D51" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" s="53" t="s">
         <v>23</v>
@@ -6473,7 +6498,7 @@
       </c>
       <c r="H51" s="53"/>
       <c r="I51" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J51" s="45" t="s">
         <v>40</v>
@@ -6493,13 +6518,13 @@
         <v>23</v>
       </c>
       <c r="B52" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>82</v>
-      </c>
       <c r="D52" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E52" s="53" t="s">
         <v>23</v>
@@ -6512,7 +6537,7 @@
       </c>
       <c r="H52" s="53"/>
       <c r="I52" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52" s="45" t="s">
         <v>40</v>
@@ -6532,13 +6557,13 @@
         <v>24</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="53" t="s">
         <v>23</v>
@@ -6551,7 +6576,7 @@
       </c>
       <c r="H53" s="53"/>
       <c r="I53" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J53" s="45" t="s">
         <v>40</v>
@@ -6571,13 +6596,13 @@
         <v>25</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54" s="53" t="s">
         <v>23</v>
@@ -6590,7 +6615,7 @@
       </c>
       <c r="H54" s="53"/>
       <c r="I54" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J54" s="45" t="s">
         <v>40</v>
@@ -6610,13 +6635,13 @@
         <v>26</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E55" s="53" t="s">
         <v>23</v>
@@ -6629,7 +6654,7 @@
       </c>
       <c r="H55" s="53"/>
       <c r="I55" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J55" s="45" t="s">
         <v>40</v>
@@ -6649,13 +6674,13 @@
         <v>27</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E56" s="53" t="s">
         <v>23</v>
@@ -6666,7 +6691,7 @@
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
       <c r="I56" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J56" s="45" t="s">
         <v>40</v>
@@ -6686,13 +6711,13 @@
         <v>28</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" s="53" t="s">
         <v>23</v>
@@ -6705,7 +6730,7 @@
       </c>
       <c r="H57" s="53"/>
       <c r="I57" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J57" s="45" t="s">
         <v>40</v>
@@ -6725,13 +6750,13 @@
         <v>29</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="53"/>
       <c r="F58" s="53"/>
@@ -6740,7 +6765,7 @@
       </c>
       <c r="H58" s="53"/>
       <c r="I58" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J58" s="45" t="s">
         <v>40</v>
@@ -6760,13 +6785,13 @@
         <v>30</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="81" t="s">
         <v>23</v>
@@ -6777,7 +6802,7 @@
       </c>
       <c r="H59" s="81"/>
       <c r="I59" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J59" s="77" t="s">
         <v>40</v>
@@ -6812,7 +6837,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -6828,7 +6853,7 @@
   </sheetPr>
   <dimension ref="B2:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6839,10 +6864,10 @@
   <sheetData>
     <row r="2" spans="2:56" ht="21" x14ac:dyDescent="0.2">
       <c r="B2" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:56" x14ac:dyDescent="0.2">
@@ -6902,44 +6927,44 @@
       <c r="C5" s="26">
         <v>11</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
       <c r="AJ5" s="26" t="s">
         <v>23</v>
       </c>
@@ -6948,69 +6973,69 @@
       </c>
       <c r="AL5" s="26"/>
       <c r="AM5" s="32"/>
-      <c r="AN5" s="85">
+      <c r="AN5" s="87">
         <v>32</v>
       </c>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="88" t="s">
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY5" s="87"/>
+      <c r="AY5" s="86"/>
     </row>
     <row r="6" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C6" s="26">
         <v>14</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
       <c r="AJ6" s="26" t="s">
         <v>23</v>
       </c>
@@ -7019,28 +7044,28 @@
       </c>
       <c r="AL6" s="26"/>
       <c r="AM6" s="32"/>
-      <c r="AN6" s="85">
+      <c r="AN6" s="87">
         <v>24</v>
       </c>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="88" t="s">
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW6" s="85"/>
+      <c r="AX6" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AS6" s="88"/>
-      <c r="AT6" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW6" s="88"/>
-      <c r="AX6" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY6" s="87"/>
+      <c r="AY6" s="86"/>
     </row>
     <row r="7" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C7" s="26"/>
@@ -7100,15 +7125,15 @@
     </row>
     <row r="10" spans="2:56" ht="21" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C12" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -7163,70 +7188,70 @@
       <c r="C13" s="26">
         <v>3</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85" t="s">
+      <c r="D13" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
       <c r="AJ13" s="26"/>
       <c r="AK13" s="26"/>
       <c r="AL13" s="26"/>
       <c r="AM13" s="32"/>
-      <c r="AN13" s="85">
+      <c r="AN13" s="87">
         <v>64</v>
       </c>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="88" t="s">
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU13" s="85"/>
+      <c r="AV13" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AS13" s="88"/>
-      <c r="AT13" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY13" s="87"/>
+      <c r="AY13" s="86"/>
     </row>
     <row r="15" spans="2:56" x14ac:dyDescent="0.2">
       <c r="C15" s="21" t="s">
@@ -7285,86 +7310,86 @@
       <c r="C16" s="26">
         <v>2</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85" t="s">
+      <c r="D16" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="86" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
       <c r="AJ16" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK16" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL16" s="26"/>
       <c r="AM16" s="32"/>
-      <c r="AN16" s="85">
+      <c r="AN16" s="87">
         <v>32</v>
       </c>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="88" t="s">
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="88" t="s">
+      <c r="AS16" s="86"/>
+      <c r="AT16" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW16" s="85"/>
+      <c r="AX16" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY16" s="87"/>
+      <c r="AY16" s="86"/>
     </row>
     <row r="19" spans="2:51" ht="21" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C21" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -7419,358 +7444,358 @@
       <c r="C22" s="26">
         <v>4</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85" t="s">
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
       <c r="AJ22" s="26"/>
       <c r="AK22" s="26"/>
       <c r="AL22" s="26"/>
       <c r="AM22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AN22" s="85">
+      <c r="AN22" s="87">
         <v>12</v>
       </c>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS22" s="88"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS22" s="85"/>
       <c r="AT22" s="90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU22" s="90"/>
       <c r="AV22" s="90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW22" s="90"/>
-      <c r="AX22" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY22" s="88"/>
+      <c r="AX22" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY22" s="85"/>
     </row>
     <row r="23" spans="2:51" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="26">
         <v>9</v>
       </c>
-      <c r="D23" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85" t="s">
+      <c r="D23" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="86" t="s">
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
       <c r="AJ23" s="26"/>
       <c r="AK23" s="26"/>
       <c r="AL23" s="26"/>
       <c r="AM23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AN23" s="85">
+      <c r="AN23" s="87">
         <v>12</v>
       </c>
-      <c r="AO23" s="85"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS23" s="88"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
+      <c r="AQ23" s="87"/>
+      <c r="AR23" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS23" s="85"/>
       <c r="AT23" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU23" s="89"/>
       <c r="AV23" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW23" s="89"/>
-      <c r="AX23" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY23" s="88"/>
+      <c r="AX23" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY23" s="85"/>
     </row>
     <row r="24" spans="2:51" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="26">
         <v>12</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85" t="s">
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="85"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="85"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="87"/>
       <c r="AJ24" s="26"/>
       <c r="AK24" s="26"/>
       <c r="AL24" s="26"/>
       <c r="AM24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AN24" s="85">
+      <c r="AN24" s="87">
         <v>72</v>
       </c>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="85"/>
-      <c r="AQ24" s="85"/>
-      <c r="AR24" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS24" s="88"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
+      <c r="AQ24" s="87"/>
+      <c r="AR24" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS24" s="85"/>
       <c r="AT24" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU24" s="89"/>
       <c r="AV24" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW24" s="89"/>
-      <c r="AX24" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY24" s="88"/>
+      <c r="AX24" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY24" s="85"/>
     </row>
     <row r="25" spans="2:51" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="26">
         <v>14</v>
       </c>
-      <c r="D25" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85" t="s">
+      <c r="D25" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="85"/>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="85"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="87"/>
       <c r="AJ25" s="26"/>
       <c r="AK25" s="26"/>
       <c r="AL25" s="26"/>
       <c r="AM25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AN25" s="85">
+      <c r="AN25" s="87">
         <v>72</v>
       </c>
-      <c r="AO25" s="85"/>
-      <c r="AP25" s="85"/>
-      <c r="AQ25" s="85"/>
-      <c r="AR25" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS25" s="88"/>
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
+      <c r="AQ25" s="87"/>
+      <c r="AR25" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS25" s="85"/>
       <c r="AT25" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU25" s="89"/>
       <c r="AV25" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW25" s="89"/>
-      <c r="AX25" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY25" s="88"/>
+      <c r="AX25" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY25" s="85"/>
     </row>
     <row r="26" spans="2:51" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="26">
         <v>15</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="86" t="s">
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
       <c r="AJ26" s="26"/>
       <c r="AK26" s="26"/>
       <c r="AL26" s="26"/>
       <c r="AM26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AN26" s="85">
-        <v>40</v>
-      </c>
-      <c r="AO26" s="85"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="85"/>
-      <c r="AR26" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS26" s="88"/>
+      <c r="AN26" s="87">
+        <v>40</v>
+      </c>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS26" s="85"/>
       <c r="AT26" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU26" s="89"/>
       <c r="AV26" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AW26" s="89"/>
-      <c r="AX26" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY26" s="88"/>
+      <c r="AX26" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY26" s="85"/>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C28" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -7825,70 +7850,70 @@
       <c r="C29" s="26">
         <v>2</v>
       </c>
-      <c r="D29" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85" t="s">
+      <c r="D29" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="86" t="s">
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="87"/>
       <c r="AJ29" s="26"/>
       <c r="AK29" s="26"/>
       <c r="AL29" s="26"/>
       <c r="AM29" s="32"/>
-      <c r="AN29" s="85">
+      <c r="AN29" s="87">
         <v>32</v>
       </c>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="85"/>
-      <c r="AR29" s="88" t="s">
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
+      <c r="AQ29" s="87"/>
+      <c r="AR29" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS29" s="85"/>
+      <c r="AT29" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU29" s="85"/>
+      <c r="AV29" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW29" s="85"/>
+      <c r="AX29" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AS29" s="88"/>
-      <c r="AT29" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW29" s="88"/>
-      <c r="AX29" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY29" s="87"/>
+      <c r="AY29" s="86"/>
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.2">
       <c r="C31" s="21" t="s">
@@ -7947,44 +7972,44 @@
       <c r="C32" s="26">
         <v>21</v>
       </c>
-      <c r="D32" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85" t="s">
+      <c r="D32" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="85"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="85"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="85"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="85"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="87"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="87"/>
       <c r="AJ32" s="26" t="s">
         <v>23</v>
       </c>
@@ -7993,69 +8018,69 @@
       </c>
       <c r="AL32" s="26"/>
       <c r="AM32" s="32"/>
-      <c r="AN32" s="85">
+      <c r="AN32" s="87">
         <v>16</v>
       </c>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="85"/>
-      <c r="AQ32" s="85"/>
-      <c r="AR32" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="88" t="s">
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AU32" s="88"/>
-      <c r="AV32" s="88" t="s">
+      <c r="AS32" s="86"/>
+      <c r="AT32" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU32" s="85"/>
+      <c r="AV32" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW32" s="85"/>
+      <c r="AX32" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AW32" s="88"/>
-      <c r="AX32" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY32" s="87"/>
+      <c r="AY32" s="86"/>
     </row>
     <row r="33" spans="3:56" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="26">
         <v>22</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="85"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="85"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="85"/>
-      <c r="AH33" s="85"/>
-      <c r="AI33" s="85"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="87"/>
+      <c r="AC33" s="87"/>
+      <c r="AD33" s="87"/>
+      <c r="AE33" s="87"/>
+      <c r="AF33" s="87"/>
+      <c r="AG33" s="87"/>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="87"/>
       <c r="AJ33" s="26" t="s">
         <v>23</v>
       </c>
@@ -8064,69 +8089,69 @@
       </c>
       <c r="AL33" s="26"/>
       <c r="AM33" s="32"/>
-      <c r="AN33" s="85">
-        <v>40</v>
-      </c>
-      <c r="AO33" s="85"/>
-      <c r="AP33" s="85"/>
-      <c r="AQ33" s="85"/>
-      <c r="AR33" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS33" s="87"/>
-      <c r="AT33" s="88" t="s">
+      <c r="AN33" s="87">
+        <v>40</v>
+      </c>
+      <c r="AO33" s="87"/>
+      <c r="AP33" s="87"/>
+      <c r="AQ33" s="87"/>
+      <c r="AR33" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AU33" s="88"/>
-      <c r="AV33" s="88" t="s">
+      <c r="AS33" s="86"/>
+      <c r="AT33" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU33" s="85"/>
+      <c r="AV33" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW33" s="85"/>
+      <c r="AX33" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AW33" s="88"/>
-      <c r="AX33" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY33" s="87"/>
+      <c r="AY33" s="86"/>
     </row>
     <row r="34" spans="3:56" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="26">
         <v>24</v>
       </c>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="86" t="s">
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="85"/>
-      <c r="AF34" s="85"/>
-      <c r="AG34" s="85"/>
-      <c r="AH34" s="85"/>
-      <c r="AI34" s="85"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="87"/>
       <c r="AJ34" s="26" t="s">
         <v>23</v>
       </c>
@@ -8135,69 +8160,69 @@
       </c>
       <c r="AL34" s="26"/>
       <c r="AM34" s="32"/>
-      <c r="AN34" s="85">
-        <v>40</v>
-      </c>
-      <c r="AO34" s="85"/>
-      <c r="AP34" s="85"/>
-      <c r="AQ34" s="85"/>
-      <c r="AR34" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS34" s="87"/>
-      <c r="AT34" s="88" t="s">
+      <c r="AN34" s="87">
+        <v>40</v>
+      </c>
+      <c r="AO34" s="87"/>
+      <c r="AP34" s="87"/>
+      <c r="AQ34" s="87"/>
+      <c r="AR34" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AU34" s="88"/>
-      <c r="AV34" s="88" t="s">
+      <c r="AS34" s="86"/>
+      <c r="AT34" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU34" s="85"/>
+      <c r="AV34" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW34" s="85"/>
+      <c r="AX34" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AW34" s="88"/>
-      <c r="AX34" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY34" s="87"/>
+      <c r="AY34" s="86"/>
     </row>
     <row r="35" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C35" s="26">
         <v>25</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="86" t="s">
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="85"/>
-      <c r="AH35" s="85"/>
-      <c r="AI35" s="85"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="87"/>
       <c r="AJ35" s="26" t="s">
         <v>23</v>
       </c>
@@ -8206,69 +8231,69 @@
       </c>
       <c r="AL35" s="26"/>
       <c r="AM35" s="32"/>
-      <c r="AN35" s="85">
+      <c r="AN35" s="87">
         <v>12</v>
       </c>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="85"/>
-      <c r="AQ35" s="85"/>
-      <c r="AR35" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS35" s="87"/>
-      <c r="AT35" s="88" t="s">
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="87"/>
+      <c r="AQ35" s="87"/>
+      <c r="AR35" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AU35" s="88"/>
-      <c r="AV35" s="88" t="s">
+      <c r="AS35" s="86"/>
+      <c r="AT35" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU35" s="85"/>
+      <c r="AV35" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW35" s="85"/>
+      <c r="AX35" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AW35" s="88"/>
-      <c r="AX35" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY35" s="87"/>
+      <c r="AY35" s="86"/>
     </row>
     <row r="36" spans="3:56" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="26">
         <v>26</v>
       </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="86" t="s">
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="85"/>
-      <c r="AF36" s="85"/>
-      <c r="AG36" s="85"/>
-      <c r="AH36" s="85"/>
-      <c r="AI36" s="85"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="87"/>
+      <c r="AC36" s="87"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+      <c r="AG36" s="87"/>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="87"/>
       <c r="AJ36" s="26" t="s">
         <v>23</v>
       </c>
@@ -8277,28 +8302,28 @@
       </c>
       <c r="AL36" s="26"/>
       <c r="AM36" s="32"/>
-      <c r="AN36" s="85">
+      <c r="AN36" s="87">
         <v>24</v>
       </c>
-      <c r="AO36" s="85"/>
-      <c r="AP36" s="85"/>
-      <c r="AQ36" s="85"/>
-      <c r="AR36" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS36" s="87"/>
-      <c r="AT36" s="88" t="s">
+      <c r="AO36" s="87"/>
+      <c r="AP36" s="87"/>
+      <c r="AQ36" s="87"/>
+      <c r="AR36" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AU36" s="88"/>
-      <c r="AV36" s="88" t="s">
+      <c r="AS36" s="86"/>
+      <c r="AT36" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU36" s="85"/>
+      <c r="AV36" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW36" s="85"/>
+      <c r="AX36" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="AW36" s="88"/>
-      <c r="AX36" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY36" s="87"/>
+      <c r="AY36" s="86"/>
     </row>
     <row r="37" spans="3:56" x14ac:dyDescent="0.2">
       <c r="C37" s="26"/>
@@ -8358,42 +8383,56 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="P6:AI6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="P33:AI33"/>
-    <mergeCell ref="AN33:AQ33"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AT33:AU33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AI5"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="I35:O35"/>
-    <mergeCell ref="P35:AI35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AT35:AU35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="P36:AI36"/>
-    <mergeCell ref="AN36:AQ36"/>
-    <mergeCell ref="AR36:AS36"/>
-    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="P23:AI23"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="I32:O32"/>
+    <mergeCell ref="P32:AI32"/>
+    <mergeCell ref="AN32:AQ32"/>
+    <mergeCell ref="AR32:AS32"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="P29:AI29"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="P24:AI24"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AN29:AQ29"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AV32:AW32"/>
+    <mergeCell ref="AR29:AS29"/>
+    <mergeCell ref="AT29:AU29"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:AY13"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AX26:AY26"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="P25:AI25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:AY16"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="D26:H26"/>
     <mergeCell ref="AV36:AW36"/>
     <mergeCell ref="AX36:AY36"/>
     <mergeCell ref="AV35:AW35"/>
@@ -8418,66 +8457,52 @@
     <mergeCell ref="AX22:AY22"/>
     <mergeCell ref="AV33:AW33"/>
     <mergeCell ref="AX33:AY33"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="I35:O35"/>
+    <mergeCell ref="P35:AI35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AT35:AU35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="P36:AI36"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:AS36"/>
+    <mergeCell ref="AT36:AU36"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="P33:AI33"/>
+    <mergeCell ref="AN33:AQ33"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AT33:AU33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AI5"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AT5:AU5"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="I13:O13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AX26:AY26"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="P25:AI25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX16:AY16"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="D26:H26"/>
     <mergeCell ref="I26:O26"/>
     <mergeCell ref="P26:AI26"/>
     <mergeCell ref="AN26:AQ26"/>
     <mergeCell ref="AR26:AS26"/>
     <mergeCell ref="AT32:AU32"/>
     <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AN29:AQ29"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AV32:AW32"/>
-    <mergeCell ref="AR29:AS29"/>
-    <mergeCell ref="AT29:AU29"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
-    <mergeCell ref="AT26:AU26"/>
     <mergeCell ref="I16:O16"/>
     <mergeCell ref="P16:AI16"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="P23:AI23"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="I32:O32"/>
-    <mergeCell ref="P32:AI32"/>
-    <mergeCell ref="AN32:AQ32"/>
-    <mergeCell ref="AR32:AS32"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="P29:AI29"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="P24:AI24"/>
-    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="P6:AI6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX6:AY6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8497,7 +8522,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8522,7 +8547,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8544,7 +8569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:AL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8575,7 +8600,7 @@
     <row r="11" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -8782,7 +8807,7 @@
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.2">
@@ -8855,7 +8880,7 @@
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -8866,7 +8891,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="2"/>
       <c r="L33" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M33" s="3"/>
     </row>
